--- a/submission/302460e3021a_TGS.xlsx
+++ b/submission/302460e3021a_TGS.xlsx
@@ -396,7 +396,7 @@
         <v>586</v>
       </c>
       <c r="B2">
-        <v>171.9795989990234</v>
+        <v>184.3303833007812</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>586.5</v>
       </c>
       <c r="B3">
-        <v>204.4705963134766</v>
+        <v>205.4308166503906</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>587</v>
       </c>
       <c r="B4">
-        <v>224.7726898193359</v>
+        <v>224.9065856933594</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>587.5</v>
       </c>
       <c r="B5">
-        <v>224.4877319335938</v>
+        <v>225.7789764404297</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>588</v>
       </c>
       <c r="B6">
-        <v>221.4637451171875</v>
+        <v>223.6644897460938</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>588.5</v>
       </c>
       <c r="B7">
-        <v>227.6913146972656</v>
+        <v>230.0897216796875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>589</v>
       </c>
       <c r="B8">
-        <v>230.5110321044922</v>
+        <v>230.3846130371094</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>589.5</v>
       </c>
       <c r="B9">
-        <v>231.3279571533203</v>
+        <v>230.9621124267578</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>590</v>
       </c>
       <c r="B10">
-        <v>222.5755615234375</v>
+        <v>224.5368804931641</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>590.5</v>
       </c>
       <c r="B11">
-        <v>221.4637451171875</v>
+        <v>223.6644897460938</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>591</v>
       </c>
       <c r="B12">
-        <v>217.1175079345703</v>
+        <v>219.5158996582031</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>591.5</v>
       </c>
       <c r="B13">
-        <v>217.1175079345703</v>
+        <v>219.5158996582031</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>592</v>
       </c>
       <c r="B14">
-        <v>221.45947265625</v>
+        <v>223.6602172851562</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>592.5</v>
       </c>
       <c r="B15">
-        <v>221.6068572998047</v>
+        <v>223.8076019287109</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>593</v>
       </c>
       <c r="B16">
-        <v>216.5062255859375</v>
+        <v>218.7069702148438</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>593.5</v>
       </c>
       <c r="B17">
-        <v>215.71826171875</v>
+        <v>218.7069702148438</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>594</v>
       </c>
       <c r="B18">
-        <v>216.0131530761719</v>
+        <v>219.0018615722656</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>594.5</v>
       </c>
       <c r="B19">
-        <v>212.2436370849609</v>
+        <v>217.1541595458984</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>595</v>
       </c>
       <c r="B20">
-        <v>210.6672210693359</v>
+        <v>216.5491027832031</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>595.5</v>
       </c>
       <c r="B21">
-        <v>210.6672210693359</v>
+        <v>215.9524230957031</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>596</v>
       </c>
       <c r="B22">
-        <v>203.8892364501953</v>
+        <v>208.4204559326172</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>596.5</v>
       </c>
       <c r="B23">
-        <v>205.2277984619141</v>
+        <v>209.0889434814453</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>597</v>
       </c>
       <c r="B24">
-        <v>205.8014068603516</v>
+        <v>209.6625518798828</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>597.5</v>
       </c>
       <c r="B25">
-        <v>211.5065765380859</v>
+        <v>215.3677215576172</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>598</v>
       </c>
       <c r="B26">
-        <v>211.4286651611328</v>
+        <v>215.2898101806641</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>598.5</v>
       </c>
       <c r="B27">
-        <v>205.8014068603516</v>
+        <v>209.6625518798828</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>599</v>
       </c>
       <c r="B28">
-        <v>197.1754760742188</v>
+        <v>202.9123382568359</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>599.5</v>
       </c>
       <c r="B29">
-        <v>181.3997955322266</v>
+        <v>192.8703002929688</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>600</v>
       </c>
       <c r="B30">
-        <v>175.0384063720703</v>
+        <v>185.8388366699219</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>600.5</v>
       </c>
       <c r="B31">
-        <v>175.0333251953125</v>
+        <v>185.8337554931641</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>601</v>
       </c>
       <c r="B32">
-        <v>184.5611419677734</v>
+        <v>195.361572265625</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>601.5</v>
       </c>
       <c r="B33">
-        <v>200.8636932373047</v>
+        <v>205.9304809570312</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>602</v>
       </c>
       <c r="B34">
-        <v>215.4355316162109</v>
+        <v>218.7989196777344</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>602.5</v>
       </c>
       <c r="B35">
-        <v>216.1455841064453</v>
+        <v>219.9227447509766</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>603</v>
       </c>
       <c r="B36">
-        <v>217.705078125</v>
+        <v>220.6937866210938</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>603.5</v>
       </c>
       <c r="B37">
-        <v>216.9850006103516</v>
+        <v>219.9737091064453</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>604</v>
       </c>
       <c r="B38">
-        <v>206.6260528564453</v>
+        <v>219.1996765136719</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>604.5</v>
       </c>
       <c r="B39">
-        <v>211.97119140625</v>
+        <v>225.8514709472656</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>605</v>
       </c>
       <c r="B40">
-        <v>207.9419555664062</v>
+        <v>221.8222351074219</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>605.5</v>
       </c>
       <c r="B41">
-        <v>216.3500823974609</v>
+        <v>218.6687164306641</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>606</v>
       </c>
       <c r="B42">
-        <v>212.3227233886719</v>
+        <v>218.2046051025391</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>606.5</v>
       </c>
       <c r="B43">
-        <v>188.1989593505859</v>
+        <v>198.09228515625</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>607</v>
       </c>
       <c r="B44">
-        <v>177.5600891113281</v>
+        <v>189.0305938720703</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>607.5</v>
       </c>
       <c r="B45">
-        <v>174.4955291748047</v>
+        <v>185.9660339355469</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>608</v>
       </c>
       <c r="B46">
-        <v>165.8971252441406</v>
+        <v>180.7379608154297</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>608.5</v>
       </c>
       <c r="B47">
-        <v>175.4994964599609</v>
+        <v>190.3041381835938</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>609</v>
       </c>
       <c r="B48">
-        <v>177.4848175048828</v>
+        <v>188.2852478027344</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>609.5</v>
       </c>
       <c r="B49">
-        <v>183.6921691894531</v>
+        <v>190.3361358642578</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>610</v>
       </c>
       <c r="B50">
-        <v>186.2265930175781</v>
+        <v>192.8705596923828</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>610.5</v>
       </c>
       <c r="B51">
-        <v>186.1291809082031</v>
+        <v>192.7731475830078</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>611</v>
       </c>
       <c r="B52">
-        <v>185.8705139160156</v>
+        <v>192.8366088867188</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>611.5</v>
       </c>
       <c r="B53">
-        <v>190.4831390380859</v>
+        <v>195.9397583007812</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>612</v>
       </c>
       <c r="B54">
-        <v>211.7085571289062</v>
+        <v>213.5299987792969</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>612.5</v>
       </c>
       <c r="B55">
-        <v>219.0144805908203</v>
+        <v>221.5899047851562</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>613</v>
       </c>
       <c r="B56">
-        <v>214.2798461914062</v>
+        <v>217.6432342529297</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>613.5</v>
       </c>
       <c r="B57">
-        <v>212.0415802001953</v>
+        <v>216.5727996826172</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>614</v>
       </c>
       <c r="B58">
-        <v>194.5435791015625</v>
+        <v>206.5629119873047</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>614.5</v>
       </c>
       <c r="B59">
-        <v>187.6612548828125</v>
+        <v>198.5052795410156</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>615</v>
       </c>
       <c r="B60">
-        <v>179.9717407226562</v>
+        <v>190.7721710205078</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>615.5</v>
       </c>
       <c r="B61">
-        <v>181.3891143798828</v>
+        <v>192.1895446777344</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>616</v>
       </c>
       <c r="B62">
-        <v>198.4189910888672</v>
+        <v>203.0397033691406</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>616.5</v>
       </c>
       <c r="B63">
-        <v>198.3715057373047</v>
+        <v>203.4382934570312</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>617</v>
       </c>
       <c r="B64">
-        <v>198.8671417236328</v>
+        <v>202.6821746826172</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>617.5</v>
       </c>
       <c r="B65">
-        <v>198.8671417236328</v>
+        <v>202.6821746826172</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>618</v>
       </c>
       <c r="B66">
-        <v>198.8671417236328</v>
+        <v>202.6821746826172</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>618.5</v>
       </c>
       <c r="B67">
-        <v>198.8671417236328</v>
+        <v>202.6821746826172</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>619</v>
       </c>
       <c r="B68">
-        <v>196.3814239501953</v>
+        <v>202.3760070800781</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>619.5</v>
       </c>
       <c r="B69">
-        <v>194.7581481933594</v>
+        <v>201.4457092285156</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>620</v>
       </c>
       <c r="B70">
-        <v>188.528076171875</v>
+        <v>195.1720428466797</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>620.5</v>
       </c>
       <c r="B71">
-        <v>188.6059875488281</v>
+        <v>195.2499542236328</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>621</v>
       </c>
       <c r="B72">
-        <v>190.4598693847656</v>
+        <v>195.7070617675781</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>621.5</v>
       </c>
       <c r="B73">
-        <v>188.6540832519531</v>
+        <v>193.9012756347656</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>622</v>
       </c>
       <c r="B74">
-        <v>186.8289489746094</v>
+        <v>192.0761413574219</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>622.5</v>
       </c>
       <c r="B75">
-        <v>171.9818115234375</v>
+        <v>184.0100250244141</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>623</v>
       </c>
       <c r="B76">
-        <v>163.6749725341797</v>
+        <v>179.3707275390625</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>623.5</v>
       </c>
       <c r="B77">
-        <v>135.2108612060547</v>
+        <v>173.5946502685547</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>624</v>
       </c>
       <c r="B78">
-        <v>135.0220642089844</v>
+        <v>173.4058685302734</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>624.5</v>
       </c>
       <c r="B79">
-        <v>129.3536987304688</v>
+        <v>171.2727203369141</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>625</v>
       </c>
       <c r="B80">
-        <v>157.3879547119141</v>
+        <v>177.7490081787109</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>625.5</v>
       </c>
       <c r="B81">
-        <v>167.7082672119141</v>
+        <v>181.1523284912109</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>626</v>
       </c>
       <c r="B82">
-        <v>186.4272003173828</v>
+        <v>191.6743927001953</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>626.5</v>
       </c>
       <c r="B83">
-        <v>188.0950012207031</v>
+        <v>193.3421936035156</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>627</v>
       </c>
       <c r="B84">
-        <v>186.2454833984375</v>
+        <v>193.5595245361328</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>627.5</v>
       </c>
       <c r="B85">
-        <v>183.7904205322266</v>
+        <v>195.2609252929688</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -12180,7 +12180,7 @@
         <v>1430.5</v>
       </c>
       <c r="B1475">
-        <v>145.1044311523438</v>
+        <v>226.2940368652344</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12188,7 +12188,7 @@
         <v>1431</v>
       </c>
       <c r="B1476">
-        <v>155.7006530761719</v>
+        <v>207.3285980224609</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12196,7 +12196,7 @@
         <v>1431.5</v>
       </c>
       <c r="B1477">
-        <v>163.9965515136719</v>
+        <v>198.6184539794922</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12204,7 +12204,7 @@
         <v>1432</v>
       </c>
       <c r="B1478">
-        <v>169.9232177734375</v>
+        <v>192.4317474365234</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -13892,7 +13892,7 @@
         <v>1537.5</v>
       </c>
       <c r="B1689">
-        <v>136.0753784179688</v>
+        <v>175.0300445556641</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13900,7 +13900,7 @@
         <v>1538</v>
       </c>
       <c r="B1690">
-        <v>138.5501861572266</v>
+        <v>176.3988189697266</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13908,7 +13908,7 @@
         <v>1538.5</v>
       </c>
       <c r="B1691">
-        <v>148.1373596191406</v>
+        <v>171.4266815185547</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13916,7 +13916,7 @@
         <v>1539</v>
       </c>
       <c r="B1692">
-        <v>149.4198303222656</v>
+        <v>168.0811614990234</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -24492,7 +24492,7 @@
         <v>2200</v>
       </c>
       <c r="B3014">
-        <v>131.0356140136719</v>
+        <v>130.1237182617188</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
